--- a/documentation/Material_Timeline.xlsx
+++ b/documentation/Material_Timeline.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GMVIDEO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\WS1617\LaborMueller\RotorTestingBench\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216"/>
   </bookViews>
   <sheets>
     <sheet name="Materialkosten" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="147">
   <si>
     <t>Materialkosten Gesamt</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Beschreibung</t>
   </si>
   <si>
-    <t>Beleg</t>
-  </si>
-  <si>
     <t>Stück</t>
   </si>
   <si>
@@ -147,33 +144,15 @@
     <t>Verkabelung</t>
   </si>
   <si>
-    <t>Drucksensor, Knopfform, Widerstandsmessung, 0,01N bis 10N</t>
-  </si>
-  <si>
     <t>Arduino Laser für Drehzahlmessung</t>
   </si>
   <si>
     <t>Für Laserabtastung</t>
   </si>
   <si>
-    <t>20x4 Flachalu Stange 1m</t>
-  </si>
-  <si>
-    <t>Blankwelle Stangenwahre, 8mm, 1lfm</t>
-  </si>
-  <si>
     <t>Holz siehe Zeichnung, weiß lasiert</t>
   </si>
   <si>
-    <t>Diverse Verkabelungen samt Halter</t>
-  </si>
-  <si>
-    <t>Platinen und Bauteile</t>
-  </si>
-  <si>
-    <t>Platinen für Bauteil Anordnung, inkl. Diverser Bauteile wie Widerstände</t>
-  </si>
-  <si>
     <t>Buffer</t>
   </si>
   <si>
@@ -358,6 +337,135 @@
   </si>
   <si>
     <t>Akademische Aufbereitung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drucksensor, Knopfform, Widerstandsmessung, 0,01N bis 10N - Sample Bestellung, kostenlose Lieferung </t>
+  </si>
+  <si>
+    <t>Interlink Electronics HongKong</t>
+  </si>
+  <si>
+    <t>Profilware: U-Profil, Flachprofil, Alurohr</t>
+  </si>
+  <si>
+    <t>Alu</t>
+  </si>
+  <si>
+    <t>Hornbach</t>
+  </si>
+  <si>
+    <t>Messingrohr</t>
+  </si>
+  <si>
+    <t>innen Durchmesser 8,1mm - Einsteckhülsen für Aluwellen</t>
+  </si>
+  <si>
+    <t>Schrauben</t>
+  </si>
+  <si>
+    <t>M3…</t>
+  </si>
+  <si>
+    <t>Hagebaumarkt</t>
+  </si>
+  <si>
+    <t>Baugruppe</t>
+  </si>
+  <si>
+    <t>Aufbau Prüfstand</t>
+  </si>
+  <si>
+    <t>Innen 8mm; 10er Pack</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Sicherung Lager</t>
+  </si>
+  <si>
+    <t>PZ und Außensegeringe</t>
+  </si>
+  <si>
+    <t>Analoge Signalverarbeitung</t>
+  </si>
+  <si>
+    <t>Verteiler Niederstrom</t>
+  </si>
+  <si>
+    <t>58pins insgesamt</t>
+  </si>
+  <si>
+    <t>10er</t>
+  </si>
+  <si>
+    <t>Schalterleiste</t>
+  </si>
+  <si>
+    <t>Kabel</t>
+  </si>
+  <si>
+    <t>Lötmaterial</t>
+  </si>
+  <si>
+    <t>Büchsenleiste</t>
+  </si>
+  <si>
+    <t>Stifleiste</t>
+  </si>
+  <si>
+    <t>ide-Stecker</t>
+  </si>
+  <si>
+    <t>starr 0,5²</t>
+  </si>
+  <si>
+    <t>2 polig, Sensoren</t>
+  </si>
+  <si>
+    <t>3 polig, Sensoren</t>
+  </si>
+  <si>
+    <t>2-ploig 0,25², Sensoren</t>
+  </si>
+  <si>
+    <t>4-polig, Motor</t>
+  </si>
+  <si>
+    <t>1-polig 1², Motor</t>
+  </si>
+  <si>
+    <t>Gehäuse</t>
+  </si>
+  <si>
+    <t>für Sensoren Steckplatine</t>
+  </si>
+  <si>
+    <t>Platine</t>
+  </si>
+  <si>
+    <t>7,5x10cm Lochplatine</t>
+  </si>
+  <si>
+    <t>Befestigung</t>
+  </si>
+  <si>
+    <t>Abstabdmutter, Schrauben und Beilagen M3</t>
+  </si>
+  <si>
+    <t>Schrumpfschlauch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to 1mm </t>
+  </si>
+  <si>
+    <t>to 2mm</t>
+  </si>
+  <si>
+    <t>Laborstecker</t>
+  </si>
+  <si>
+    <t>2,4mm, je 2x rot, gelb und sw</t>
   </si>
 </sst>
 </file>
@@ -445,7 +553,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -470,9 +578,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -502,6 +607,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -818,78 +932,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I23"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="2"/>
-    <col min="2" max="2" width="8.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="29.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.77734375" style="2" customWidth="1"/>
     <col min="5" max="5" width="11" style="2"/>
-    <col min="6" max="6" width="5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="4.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.21875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="4.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.77734375" style="2" customWidth="1"/>
     <col min="10" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="12" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" s="6" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>42659</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="G4" s="5">
         <v>8.9499999999999993</v>
@@ -902,24 +1016,24 @@
         <v>8.9499999999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="6" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>42659</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1</v>
+      <c r="F5" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="G5" s="5">
         <v>19.95</v>
@@ -928,28 +1042,28 @@
         <v>1</v>
       </c>
       <c r="I5" s="5">
-        <f t="shared" ref="I5:I33" si="0">H5*G5</f>
+        <f t="shared" ref="I5:I37" si="0">H5*G5</f>
         <v>19.95</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="6" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>42659</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="G6" s="5">
         <v>2.95</v>
@@ -962,24 +1076,24 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="6" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>42659</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="G7" s="5">
         <v>3.95</v>
@@ -992,24 +1106,24 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="6" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>42659</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="G8" s="5">
         <v>2.95</v>
@@ -1022,22 +1136,22 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="6" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>42659</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="E9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="G9" s="5">
         <v>7.99</v>
@@ -1050,21 +1164,23 @@
         <v>7.99</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="6" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>42644</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="E10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>120</v>
+      </c>
       <c r="G10" s="5">
         <v>27.24</v>
       </c>
@@ -1076,21 +1192,23 @@
         <v>27.24</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="6" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>42644</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>120</v>
+      </c>
       <c r="G11" s="5">
         <v>28.43</v>
       </c>
@@ -1102,174 +1220,215 @@
         <v>28.43</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+    <row r="12" spans="1:9" s="6" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="20">
+        <v>42668</v>
+      </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="C12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>16</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="6" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5">
-        <v>7</v>
+      <c r="F13" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1.95</v>
       </c>
       <c r="H13" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I13" s="5">
         <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="6" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>120</v>
+      </c>
       <c r="G14" s="4">
-        <v>1.95</v>
+        <v>0.95</v>
       </c>
       <c r="H14" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" si="0"/>
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>32</v>
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="20">
+        <v>42664</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4">
-        <v>0.95</v>
+        <v>106</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G15" s="5">
+        <v>15</v>
       </c>
       <c r="H15" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I15" s="5">
         <f t="shared" si="0"/>
-        <v>4.75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>32</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="20">
+        <v>42664</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+        <v>107</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="G16" s="5">
-        <v>5</v>
+        <v>5.9</v>
       </c>
       <c r="H16" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I16" s="5">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>32</v>
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20">
+        <v>42664</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="G17" s="5">
         <v>5</v>
       </c>
       <c r="H17" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I17" s="5">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>32</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="6" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A18" s="20">
+        <v>42664</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+        <v>110</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="G18" s="5">
-        <v>5</v>
+        <v>7.9</v>
       </c>
       <c r="H18" s="4">
         <v>1</v>
       </c>
       <c r="I18" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>32</v>
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="20">
+        <v>42664</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+        <v>112</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="G19" s="5">
         <v>10</v>
       </c>
@@ -1281,114 +1440,358 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>32</v>
+    <row r="20" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="20">
+        <v>42668</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+        <v>116</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="G20" s="5">
-        <v>20</v>
+        <v>9.8699999999999992</v>
       </c>
       <c r="H20" s="4">
         <v>1</v>
       </c>
       <c r="I20" s="5">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
+        <v>9.8699999999999992</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="20">
+        <v>42664</v>
+      </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="10">
-        <f>SUM(I4:I21)*0.1</f>
-        <v>24.076000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="10">
-        <f>SUM(I4:I22)</f>
-        <v>264.83600000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I24" s="11"/>
-    </row>
-    <row r="25" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I25" s="11"/>
-    </row>
-    <row r="26" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I26" s="11"/>
-    </row>
-    <row r="27" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I27" s="11"/>
-    </row>
-    <row r="28" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I28" s="11"/>
-    </row>
-    <row r="29" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I29" s="11"/>
-    </row>
-    <row r="30" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I31" s="6">
+      <c r="C21" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="6" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>42668</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" s="4">
+        <v>5</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="6" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A23" s="21">
+        <v>42668</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="H23" s="6">
+        <v>1</v>
+      </c>
+      <c r="I23" s="6">
+        <f t="shared" si="0"/>
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="6" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A24" s="21">
+        <v>42668</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="6" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C25" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="1:9" s="6" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C26" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="1:9" s="6" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C27" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="1:9" s="6" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C28" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I28" s="10"/>
+    </row>
+    <row r="29" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="10"/>
+    </row>
+    <row r="31" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" s="10"/>
+    </row>
+    <row r="32" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="10"/>
+    </row>
+    <row r="33" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I33" s="10"/>
+    </row>
+    <row r="34" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I35" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I32" s="6">
+    <row r="36" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I33" s="6">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I37" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="4"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H42" s="19"/>
+      <c r="I42" s="9">
+        <f>SUM(I4:I22)*0.1</f>
+        <v>20.763000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="4"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="19"/>
+      <c r="I43" s="9">
+        <f>SUM(I4:I42)</f>
+        <v>232.29300000000001</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1399,89 +1802,89 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:U44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:U44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.75" style="19" customWidth="1"/>
+    <col min="1" max="1" width="7.77734375" style="18" customWidth="1"/>
     <col min="2" max="2" width="21" style="6" customWidth="1"/>
-    <col min="3" max="21" width="4.375" style="6" customWidth="1"/>
+    <col min="3" max="21" width="4.33203125" style="6" customWidth="1"/>
     <col min="22" max="16384" width="11" style="6"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:21" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18" t="s">
+    <row r="3" spans="1:21" s="18" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="K3" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="L3" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="M3" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="N3" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="O3" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="P3" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="Q3" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="R3" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="S3" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="T3" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="U3" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="O3" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="P3" s="18" t="s">
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="Q3" s="18" t="s">
+      <c r="B4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="R3" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="S3" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="T3" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="U3" s="18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -1499,14 +1902,14 @@
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
       <c r="B5" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
+        <v>66</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -1524,12 +1927,12 @@
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
       <c r="B6" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="14"/>
+        <v>67</v>
+      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1549,8 +1952,8 @@
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="17"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1572,20 +1975,20 @@
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>70</v>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -1599,15 +2002,15 @@
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
     </row>
-    <row r="9" spans="1:21" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+    <row r="9" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
       <c r="B9" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -1624,16 +2027,16 @@
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
       <c r="B10" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -1649,17 +2052,17 @@
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
       <c r="B11" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="16"/>
+      <c r="H11" s="15"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -1674,18 +2077,18 @@
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
       <c r="B12" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -1699,8 +2102,8 @@
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="17"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1722,23 +2125,23 @@
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>79</v>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>72</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -1749,19 +2152,19 @@
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
       <c r="B15" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
@@ -1774,10 +2177,10 @@
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="17"/>
       <c r="B16" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1785,8 +2188,8 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
@@ -1799,10 +2202,10 @@
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="17"/>
       <c r="B17" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1811,9 +2214,9 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -1824,10 +2227,10 @@
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18" s="17"/>
       <c r="B18" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1836,8 +2239,8 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -1849,8 +2252,8 @@
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" s="17"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1872,25 +2275,25 @@
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>85</v>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>78</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
@@ -1899,23 +2302,23 @@
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A21" s="17"/>
       <c r="B21" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
@@ -1924,10 +2327,10 @@
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A22" s="17"/>
       <c r="B22" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1938,9 +2341,9 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
@@ -1949,23 +2352,23 @@
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
+    <row r="23" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A23" s="17"/>
       <c r="B23" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
@@ -1974,10 +2377,10 @@
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A24" s="17"/>
       <c r="B24" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -1986,11 +2389,11 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
@@ -1999,8 +2402,8 @@
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25" s="17"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -2022,12 +2425,12 @@
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
-        <v>91</v>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -2035,24 +2438,24 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A27" s="17"/>
       <c r="B27" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -2060,24 +2463,24 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A28" s="17"/>
       <c r="B28" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -2085,24 +2488,24 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A29" s="17"/>
       <c r="B29" s="4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -2116,16 +2519,16 @@
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A30" s="17"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -2147,39 +2550,39 @@
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
-        <v>96</v>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
+        <v>90</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A32" s="17"/>
       <c r="B32" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32" s="14"/>
+        <v>91</v>
+      </c>
+      <c r="C32" s="13"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -2199,21 +2602,21 @@
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A33" s="17"/>
       <c r="B33" s="4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
@@ -2224,10 +2627,10 @@
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A34" s="17"/>
       <c r="B34" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -2235,37 +2638,37 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A35" s="17"/>
       <c r="B35" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
@@ -2274,10 +2677,10 @@
       <c r="T35" s="4"/>
       <c r="U35" s="4"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A36" s="17"/>
       <c r="B36" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -2290,8 +2693,8 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
@@ -2299,10 +2702,10 @@
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A37" s="17"/>
       <c r="B37" s="4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -2320,14 +2723,14 @@
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
-      <c r="S37" s="14"/>
-      <c r="T37" s="14"/>
-      <c r="U37" s="14"/>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="13"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A38" s="17"/>
       <c r="B38" s="4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -2344,13 +2747,13 @@
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="14"/>
-      <c r="T38" s="14"/>
-      <c r="U38" s="14"/>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A39" s="17"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -2372,37 +2775,37 @@
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="s">
-        <v>105</v>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A40" s="17" t="s">
+        <v>98</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="13"/>
-    </row>
-    <row r="41" spans="1:21" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
+        <v>99</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+    </row>
+    <row r="41" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A41" s="17"/>
       <c r="B41" s="4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -2417,17 +2820,17 @@
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="14"/>
-      <c r="R41" s="14"/>
-      <c r="S41" s="14"/>
-      <c r="T41" s="14"/>
-      <c r="U41" s="14"/>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="18"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="13"/>
+    </row>
+    <row r="42" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A42" s="17"/>
       <c r="B42" s="4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -2445,39 +2848,39 @@
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
-      <c r="S42" s="14"/>
-      <c r="T42" s="14"/>
-      <c r="U42" s="14"/>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="18"/>
+      <c r="S42" s="13"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A43" s="17"/>
       <c r="B43" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="14"/>
-      <c r="R43" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="13"/>
       <c r="S43" s="4"/>
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A44" s="17"/>
       <c r="B44" s="4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -2492,12 +2895,12 @@
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="14"/>
-      <c r="R44" s="14"/>
-      <c r="S44" s="14"/>
-      <c r="T44" s="14"/>
-      <c r="U44" s="14"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/documentation/Material_Timeline.xlsx
+++ b/documentation/Material_Timeline.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="158">
   <si>
     <t>Materialkosten Gesamt</t>
   </si>
@@ -450,9 +450,6 @@
     <t>Befestigung</t>
   </si>
   <si>
-    <t>Abstabdmutter, Schrauben und Beilagen M3</t>
-  </si>
-  <si>
     <t>Schrumpfschlauch</t>
   </si>
   <si>
@@ -466,6 +463,42 @@
   </si>
   <si>
     <t>2,4mm, je 2x rot, gelb und sw</t>
+  </si>
+  <si>
+    <t>Motor Verteiler</t>
+  </si>
+  <si>
+    <t>Abstandmutter, Schrauben und Beilagen M3</t>
+  </si>
+  <si>
+    <t>Bananenbüchse 4mm div Farben</t>
+  </si>
+  <si>
+    <t>Bananenhülse 2,4mm div Farben</t>
+  </si>
+  <si>
+    <t>Schalter 2-polig 20A</t>
+  </si>
+  <si>
+    <t>Lötöse M6</t>
+  </si>
+  <si>
+    <t>Laborbüchse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schalter </t>
+  </si>
+  <si>
+    <t>Kabelbefestigung</t>
+  </si>
+  <si>
+    <t>4- poilig Motor</t>
+  </si>
+  <si>
+    <t>Die Materialkosten sollten für V1 somit abgedeckt sein, sollten noch elektrische Bauteile für den Messaufbau benötigt werden,</t>
+  </si>
+  <si>
+    <t>wird hier wie bei den Drucksensoren eine kostenlose Sampellieferung angestrebt - keine Merhkosten.</t>
   </si>
 </sst>
 </file>
@@ -582,9 +615,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -609,14 +639,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -932,15 +965,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" style="2"/>
+    <col min="1" max="1" width="5.77734375" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="29.77734375" style="2" customWidth="1"/>
@@ -958,31 +991,31 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1042,7 +1075,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="5">
-        <f t="shared" ref="I5:I37" si="0">H5*G5</f>
+        <f t="shared" ref="I5:I45" si="0">H5*G5</f>
         <v>19.95</v>
       </c>
     </row>
@@ -1164,7 +1197,7 @@
         <v>7.99</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="6" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="6" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>42644</v>
       </c>
@@ -1221,7 +1254,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" s="6" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="20">
+      <c r="A12" s="18">
         <v>42668</v>
       </c>
       <c r="B12" s="4"/>
@@ -1263,7 +1296,7 @@
       <c r="F13" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="5">
         <v>1.95</v>
       </c>
       <c r="H13" s="4">
@@ -1289,7 +1322,7 @@
       <c r="F14" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="5">
         <v>0.95</v>
       </c>
       <c r="H14" s="4">
@@ -1301,7 +1334,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20">
+      <c r="A15" s="18">
         <v>42664</v>
       </c>
       <c r="B15" s="4"/>
@@ -1329,7 +1362,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20">
+      <c r="A16" s="18">
         <v>42664</v>
       </c>
       <c r="B16" s="4"/>
@@ -1357,7 +1390,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20">
+      <c r="A17" s="18">
         <v>42664</v>
       </c>
       <c r="B17" s="4"/>
@@ -1385,7 +1418,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" s="6" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A18" s="20">
+      <c r="A18" s="18">
         <v>42664</v>
       </c>
       <c r="B18" s="4"/>
@@ -1413,7 +1446,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20">
+      <c r="A19" s="18">
         <v>42664</v>
       </c>
       <c r="B19" s="4"/>
@@ -1441,7 +1474,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="20">
+      <c r="A20" s="18">
         <v>42668</v>
       </c>
       <c r="B20" s="4"/>
@@ -1469,7 +1502,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="20">
+      <c r="A21" s="18">
         <v>42664</v>
       </c>
       <c r="B21" s="4"/>
@@ -1513,7 +1546,7 @@
       <c r="F22" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="5">
         <v>5</v>
       </c>
       <c r="H22" s="4">
@@ -1525,275 +1558,693 @@
       </c>
     </row>
     <row r="23" spans="1:9" s="6" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A23" s="21">
+      <c r="A23" s="3">
         <v>42668</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <v>3.9</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="4">
         <v>1</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="5">
         <f t="shared" si="0"/>
         <v>3.9</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="6" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A24" s="21">
+      <c r="A24" s="3">
         <v>42668</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="4" t="s">
         <v>121</v>
       </c>
+      <c r="G24" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H24" s="4">
+        <v>2</v>
+      </c>
+      <c r="I24" s="5">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="25" spans="1:9" s="6" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C25" s="6" t="s">
+      <c r="A25" s="3">
+        <v>42668</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I25" s="10"/>
+      <c r="G25" s="5">
+        <v>3</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+      <c r="I25" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="1:9" s="6" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C26" s="6" t="s">
+      <c r="A26" s="3">
+        <v>42668</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I26" s="10"/>
+      <c r="G26" s="5">
+        <v>2.98</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" si="0"/>
+        <v>2.98</v>
+      </c>
     </row>
     <row r="27" spans="1:9" s="6" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C27" s="6" t="s">
+      <c r="A27" s="3">
+        <v>42668</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I27" s="10"/>
+      <c r="G27" s="5">
+        <v>3.98</v>
+      </c>
+      <c r="H27" s="4">
+        <v>1</v>
+      </c>
+      <c r="I27" s="5">
+        <f t="shared" si="0"/>
+        <v>3.98</v>
+      </c>
     </row>
     <row r="28" spans="1:9" s="6" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C28" s="6" t="s">
+      <c r="A28" s="3">
+        <v>42668</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G28" s="5">
+        <v>5</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1</v>
+      </c>
+      <c r="I28" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>42668</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="5">
+        <v>12</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="I29" s="5">
+        <f t="shared" si="0"/>
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>42668</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="5">
+        <v>4</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="I30" s="5">
+        <f t="shared" si="0"/>
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>42668</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="H31" s="4">
+        <v>20</v>
+      </c>
+      <c r="I31" s="5">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>42668</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="H32" s="4">
+        <v>2</v>
+      </c>
+      <c r="I32" s="5">
+        <f t="shared" si="0"/>
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>42668</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="H33" s="4">
+        <v>20</v>
+      </c>
+      <c r="I33" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>42668</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="D34" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="5">
+        <v>5.99</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="I34" s="5">
+        <f t="shared" si="0"/>
+        <v>4.7920000000000007</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>42668</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="5">
+        <v>6.99</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I35" s="5">
+        <f t="shared" si="0"/>
+        <v>3.4950000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>42668</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="H36" s="4">
+        <v>6</v>
+      </c>
+      <c r="I36" s="5">
+        <f t="shared" si="0"/>
+        <v>5.9399999999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>42668</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G37" s="5">
+        <v>5</v>
+      </c>
+      <c r="H37" s="4">
+        <v>1</v>
+      </c>
+      <c r="I37" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>42668</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G38" s="21">
+        <v>2.98</v>
+      </c>
+      <c r="H38" s="20">
+        <v>1</v>
+      </c>
+      <c r="I38" s="5">
+        <f t="shared" si="0"/>
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>42668</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G39" s="21">
+        <v>3.98</v>
+      </c>
+      <c r="H39" s="20">
+        <v>1</v>
+      </c>
+      <c r="I39" s="5">
+        <f t="shared" si="0"/>
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>42668</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="I28" s="10"/>
-    </row>
-    <row r="29" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E29" s="6" t="s">
+      <c r="F40" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G40" s="21">
+        <v>5</v>
+      </c>
+      <c r="H40" s="20">
+        <v>1</v>
+      </c>
+      <c r="I40" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>42668</v>
+      </c>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="E41" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I29" s="10"/>
-    </row>
-    <row r="30" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E30" s="6" t="s">
+      <c r="F41" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="G41" s="21">
+        <v>1.49</v>
+      </c>
+      <c r="H41" s="20">
+        <v>4</v>
+      </c>
+      <c r="I41" s="5">
+        <f t="shared" si="0"/>
+        <v>5.96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>42668</v>
+      </c>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="E42" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I30" s="10"/>
-    </row>
-    <row r="31" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="E31" s="6" t="s">
+      <c r="F42" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="G42" s="21">
+        <v>0.87</v>
+      </c>
+      <c r="H42" s="20">
+        <v>6</v>
+      </c>
+      <c r="I42" s="5">
+        <f t="shared" si="0"/>
+        <v>5.22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>42668</v>
+      </c>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="E43" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I31" s="10"/>
-    </row>
-    <row r="32" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="6" t="s">
+      <c r="F43" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="G43" s="21">
+        <v>2.89</v>
+      </c>
+      <c r="H43" s="20">
+        <v>2</v>
+      </c>
+      <c r="I43" s="5">
+        <f t="shared" si="0"/>
+        <v>5.78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>42668</v>
+      </c>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="G44" s="21">
+        <v>0.08</v>
+      </c>
+      <c r="H44" s="20">
+        <v>10</v>
+      </c>
+      <c r="I44" s="5">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>42668</v>
+      </c>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E32" s="6" t="s">
+      <c r="D45" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="E45" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="10"/>
-    </row>
-    <row r="33" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I33" s="10"/>
-    </row>
-    <row r="34" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I35" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D36" s="6" t="s">
+      <c r="F45" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I36" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I37" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="19" t="s">
+      <c r="G45" s="21">
+        <v>0.99</v>
+      </c>
+      <c r="H45" s="20">
+        <v>2</v>
+      </c>
+      <c r="I45" s="5">
+        <f t="shared" si="0"/>
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="4"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="9">
-        <f>SUM(I4:I22)*0.1</f>
-        <v>20.763000000000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="19" t="s">
+      <c r="H46" s="19"/>
+      <c r="I46" s="9">
+        <f>SUM(I4:I45)*0.1</f>
+        <v>28.655700000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="4"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="9">
-        <f>SUM(I4:I42)</f>
-        <v>232.29300000000001</v>
+      <c r="H47" s="19"/>
+      <c r="I47" s="9">
+        <f>SUM(I4:I46)</f>
+        <v>315.21270000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
@@ -1808,83 +2259,83 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" style="18" customWidth="1"/>
+    <col min="1" max="1" width="7.77734375" style="17" customWidth="1"/>
     <col min="2" max="2" width="21" style="6" customWidth="1"/>
     <col min="3" max="21" width="4.33203125" style="6" customWidth="1"/>
     <col min="22" max="16384" width="11" style="6"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:21" s="18" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17" t="s">
+    <row r="3" spans="1:21" s="17" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="N3" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="O3" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="P3" s="17" t="s">
+      <c r="P3" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="Q3" s="17" t="s">
+      <c r="Q3" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="R3" s="17" t="s">
+      <c r="R3" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="S3" s="17" t="s">
+      <c r="S3" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="T3" s="17" t="s">
+      <c r="T3" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="U3" s="17" t="s">
+      <c r="U3" s="16" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>64</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -1903,13 +2354,13 @@
       <c r="U4" s="4"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -1928,11 +2379,11 @@
       <c r="U5" s="4"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1953,7 +2404,7 @@
       <c r="U6" s="4"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1976,7 +2427,7 @@
       <c r="U7" s="4"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1984,11 +2435,11 @@
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -2003,14 +2454,14 @@
       <c r="U8" s="4"/>
     </row>
     <row r="9" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -2028,15 +2479,15 @@
       <c r="U9" s="4"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -2053,7 +2504,7 @@
       <c r="U10" s="4"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="4" t="s">
         <v>70</v>
       </c>
@@ -2062,7 +2513,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="15"/>
+      <c r="H11" s="14"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -2078,7 +2529,7 @@
       <c r="U11" s="4"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="4" t="s">
         <v>71</v>
       </c>
@@ -2087,8 +2538,8 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -2103,7 +2554,7 @@
       <c r="U12" s="4"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -2126,7 +2577,7 @@
       <c r="U13" s="4"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>72</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2137,11 +2588,11 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -2153,7 +2604,7 @@
       <c r="U14" s="4"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="4" t="s">
         <v>38</v>
       </c>
@@ -2162,9 +2613,9 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
@@ -2178,7 +2629,7 @@
       <c r="U15" s="4"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="4" t="s">
         <v>75</v>
       </c>
@@ -2188,8 +2639,8 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
@@ -2203,7 +2654,7 @@
       <c r="U16" s="4"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="4" t="s">
         <v>76</v>
       </c>
@@ -2214,9 +2665,9 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -2228,7 +2679,7 @@
       <c r="U17" s="4"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="4" t="s">
         <v>77</v>
       </c>
@@ -2239,8 +2690,8 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -2253,7 +2704,7 @@
       <c r="U18" s="4"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -2276,7 +2727,7 @@
       <c r="U19" s="4"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="16" t="s">
         <v>78</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -2284,16 +2735,16 @@
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
@@ -2303,22 +2754,22 @@
       <c r="U20" s="4"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="4" t="s">
         <v>80</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
@@ -2328,7 +2779,7 @@
       <c r="U21" s="4"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="4" t="s">
         <v>81</v>
       </c>
@@ -2341,9 +2792,9 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
@@ -2353,7 +2804,7 @@
       <c r="U22" s="4"/>
     </row>
     <row r="23" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="4" t="s">
         <v>82</v>
       </c>
@@ -2362,13 +2813,13 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
@@ -2378,7 +2829,7 @@
       <c r="U23" s="4"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="4" t="s">
         <v>83</v>
       </c>
@@ -2389,11 +2840,11 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
@@ -2403,7 +2854,7 @@
       <c r="U24" s="4"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -2426,7 +2877,7 @@
       <c r="U25" s="4"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="16" t="s">
         <v>84</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -2438,22 +2889,22 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="4" t="s">
         <v>86</v>
       </c>
@@ -2463,22 +2914,22 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="4" t="s">
         <v>87</v>
       </c>
@@ -2488,22 +2939,22 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="4" t="s">
         <v>88</v>
       </c>
@@ -2519,16 +2970,16 @@
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
+      <c r="A30" s="16"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -2551,38 +3002,38 @@
       <c r="U30" s="4"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="16" t="s">
         <v>89</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="13"/>
+      <c r="C32" s="12"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -2603,20 +3054,20 @@
       <c r="U32" s="4"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
@@ -2628,7 +3079,7 @@
       <c r="U33" s="4"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
+      <c r="A34" s="16"/>
       <c r="B34" s="4" t="s">
         <v>93</v>
       </c>
@@ -2638,37 +3089,37 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
+      <c r="A35" s="16"/>
       <c r="B35" s="4" t="s">
         <v>94</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
@@ -2678,7 +3129,7 @@
       <c r="U35" s="4"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
+      <c r="A36" s="16"/>
       <c r="B36" s="4" t="s">
         <v>95</v>
       </c>
@@ -2693,8 +3144,8 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
@@ -2703,7 +3154,7 @@
       <c r="U36" s="4"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
+      <c r="A37" s="16"/>
       <c r="B37" s="4" t="s">
         <v>96</v>
       </c>
@@ -2723,12 +3174,12 @@
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
-      <c r="S37" s="13"/>
-      <c r="T37" s="13"/>
-      <c r="U37" s="13"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="17"/>
+      <c r="A38" s="16"/>
       <c r="B38" s="4" t="s">
         <v>97</v>
       </c>
@@ -2747,13 +3198,13 @@
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
+      <c r="A39" s="16"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -2776,34 +3227,34 @@
       <c r="U39" s="4"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="16" t="s">
         <v>98</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="12"/>
-      <c r="S40" s="12"/>
-      <c r="T40" s="12"/>
-      <c r="U40" s="12"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
     </row>
     <row r="41" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A41" s="17"/>
+      <c r="A41" s="16"/>
       <c r="B41" s="4" t="s">
         <v>100</v>
       </c>
@@ -2820,15 +3271,15 @@
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="13"/>
-      <c r="S41" s="13"/>
-      <c r="T41" s="13"/>
-      <c r="U41" s="13"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
     </row>
     <row r="42" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A42" s="17"/>
+      <c r="A42" s="16"/>
       <c r="B42" s="4" t="s">
         <v>101</v>
       </c>
@@ -2848,37 +3299,37 @@
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
-      <c r="S42" s="13"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="13"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A43" s="17"/>
+      <c r="A43" s="16"/>
       <c r="B43" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="13"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
       <c r="S43" s="4"/>
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A44" s="17"/>
+      <c r="A44" s="16"/>
       <c r="B44" s="4" t="s">
         <v>103</v>
       </c>
@@ -2895,12 +3346,12 @@
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
-      <c r="P44" s="13"/>
-      <c r="Q44" s="13"/>
-      <c r="R44" s="13"/>
-      <c r="S44" s="13"/>
-      <c r="T44" s="13"/>
-      <c r="U44" s="13"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
